--- a/Stats Domínio.xlsx
+++ b/Stats Domínio.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>Data</t>
   </si>
@@ -639,6 +639,41 @@
         <v>1.0</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="4">
+        <v>44569.0</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
